--- a/data/DWP_valve assignment 3 March2105.xlsx
+++ b/data/DWP_valve assignment 3 March2105.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9975"/>
+    <workbookView xWindow="480" yWindow="100" windowWidth="23080" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>DWP#</t>
   </si>
@@ -38,15 +43,43 @@
   <si>
     <t>CH4 blank</t>
   </si>
+  <si>
+    <t>Changed from 36 per SF June 4 2015</t>
+  </si>
+  <si>
+    <t>Changed from 15 per SF June 4 2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,15 +102,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,23 +422,23 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -434,7 +476,7 @@
         <v>42060</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -460,7 +502,7 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -486,7 +528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1</v>
       </c>
@@ -512,7 +554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>2</v>
       </c>
@@ -538,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3</v>
       </c>
@@ -564,7 +606,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>4</v>
       </c>
@@ -590,7 +632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>5</v>
       </c>
@@ -616,7 +658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>6</v>
       </c>
@@ -642,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>7</v>
       </c>
@@ -668,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>8</v>
       </c>
@@ -694,7 +736,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>9</v>
       </c>
@@ -720,7 +762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>10</v>
       </c>
@@ -746,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>11</v>
       </c>
@@ -756,8 +798,11 @@
       <c r="F15">
         <v>11</v>
       </c>
-      <c r="G15">
-        <v>36</v>
+      <c r="G15" s="3">
+        <v>32</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="K15">
         <v>11</v>
@@ -772,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>12</v>
       </c>
@@ -798,7 +843,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>13</v>
       </c>
@@ -824,7 +869,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>14</v>
       </c>
@@ -850,7 +895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>15</v>
       </c>
@@ -872,11 +917,14 @@
       <c r="P19">
         <v>15</v>
       </c>
-      <c r="Q19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>16</v>
       </c>
@@ -904,6 +952,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -913,9 +967,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -925,8 +984,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>